--- a/动态规划.xlsx
+++ b/动态规划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24799\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apps\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80C2CE-18B3-4CB9-95F1-4D93CFCFAC3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71610A-1328-4CFC-88F8-394D8BC0FE96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>背包容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +68,59 @@
   </si>
   <si>
     <t>物品7</t>
+  </si>
+  <si>
+    <t>物品8</t>
+  </si>
+  <si>
+    <t>物品9</t>
+  </si>
+  <si>
+    <t>物品10</t>
+  </si>
+  <si>
+    <t>物品11</t>
+  </si>
+  <si>
+    <t>物品12</t>
+  </si>
+  <si>
+    <t>物品13</t>
+  </si>
+  <si>
+    <t>物品14</t>
+  </si>
+  <si>
+    <t>物品15</t>
+  </si>
+  <si>
+    <t>物品16</t>
+  </si>
+  <si>
+    <t>物品17</t>
+  </si>
+  <si>
+    <t>物品18</t>
+  </si>
+  <si>
+    <t>物品19</t>
+  </si>
+  <si>
+    <t>物品20</t>
+  </si>
+  <si>
+    <t>物品21</t>
+  </si>
+  <si>
+    <t>黄色位置即是最优解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +135,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,17 +179,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:P9" ca="1" si="0">IF(B$1&gt;=$S3,MAX(OFFSET(B3,-1,-$S3,1,1)+$T3,B2),0)</f>
+        <f t="shared" ref="B3:P18" ca="1" si="0">IF(B$1&gt;=$S3,MAX(OFFSET(B3,-1,-$S3,1,1)+$T3,B2),0)</f>
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -661,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q9" ca="1" si="1">IF(Q$1&gt;=$S4,MAX(OFFSET(Q4,-1,-$S4,1,1)+$T4,Q3),0)</f>
+        <f t="shared" ref="Q4:Q27" ca="1" si="1">IF(Q$1&gt;=$S4,MAX(OFFSET(Q4,-1,-$S4,1,1)+$T4,Q3),0)</f>
         <v>15</v>
       </c>
       <c r="S4" s="1">
@@ -885,7 +971,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
@@ -918,11 +1004,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -960,16 +1046,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="S8" s="1">
-        <v>4</v>
-      </c>
-      <c r="T8" s="1">
-        <v>5</v>
-      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -981,114 +1063,1059 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="B18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:P23" ca="1" si="2">IF(B$1&gt;=$S19,MAX(OFFSET(B19,-1,-$S19,1,1)+$T19,B18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="Q27" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B27:E27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
